--- a/Elektronik/Filter_real.xlsx
+++ b/Elektronik/Filter_real.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timo\Documents\projektarbeit\Elektronik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF35A4F-06CE-49A9-A93D-2594B1471AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F29C9-1E41-4897-A386-02212E9A7396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="4488" windowWidth="21084" windowHeight="7656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -93,13 +93,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -154,7 +216,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Tiefpassfilter Dämpfung</a:t>
+              <a:t>realer Tiefpassfilter Frequenzgang</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -223,7 +285,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$21</c:f>
+              <c:f>Tabelle1!$B$4:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -289,7 +351,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$21</c:f>
+              <c:f>Tabelle1!$F$4:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1218,16 +1280,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>744416</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90853</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>356090</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>319455</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>108437</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>275495</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1518,417 +1580,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="B3">
+      <c r="C4" s="2">
         <v>3120</v>
       </c>
-      <c r="C3">
+      <c r="D4" s="2">
         <v>3080</v>
       </c>
-      <c r="D3">
-        <f>C3/B3*100</f>
+      <c r="E4" s="2">
+        <f>D4/C4*100</f>
         <v>98.71794871794873</v>
       </c>
-      <c r="E3">
-        <f>20*LOG(D3/100)</f>
+      <c r="F4" s="2">
+        <f>20*LOG(E4/100)</f>
         <v>-0.11207755035996922</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>200</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="2">
         <v>2960</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="2">
         <v>2760</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D21" si="0">C4/B4*100</f>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E22" si="0">D5/C5*100</f>
         <v>93.243243243243242</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E21" si="1">20*LOG(D4/100)</f>
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F22" si="1">20*LOG(E5/100)</f>
         <v>-0.60765257987441723</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>300</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="2">
         <v>2800</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="2">
         <v>2480</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>88.571428571428569</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="2">
         <f t="shared" si="1"/>
         <v>-1.0541270103200595</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>400</v>
       </c>
-      <c r="B6">
+      <c r="C7" s="2">
         <v>2680</v>
       </c>
-      <c r="C6">
+      <c r="D7" s="2">
         <v>2240</v>
       </c>
-      <c r="D6">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>83.582089552238799</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>-1.5577355138925206</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>500</v>
       </c>
-      <c r="B7">
+      <c r="C8" s="2">
         <v>2600</v>
       </c>
-      <c r="C7">
+      <c r="D8" s="2">
         <v>2000</v>
       </c>
-      <c r="D7">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>76.923076923076934</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>-2.2788670461367335</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>600</v>
       </c>
-      <c r="B8">
+      <c r="C9" s="2">
         <v>2520</v>
       </c>
-      <c r="C8">
+      <c r="D9" s="2">
         <v>1840</v>
       </c>
-      <c r="D8">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>73.015873015873012</v>
       </c>
-      <c r="E8">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>-2.7316543554401527</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>700</v>
       </c>
-      <c r="B9">
+      <c r="C10" s="2">
         <v>2440</v>
       </c>
-      <c r="C9">
+      <c r="D10" s="2">
         <v>1680</v>
       </c>
-      <c r="D9">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>68.852459016393439</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>-3.2416108922573317</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>800</v>
       </c>
-      <c r="B10">
+      <c r="C11" s="2">
         <v>2400</v>
       </c>
-      <c r="C10">
+      <c r="D11" s="2">
         <v>1480</v>
       </c>
-      <c r="D10">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>61.666666666666671</v>
       </c>
-      <c r="E10">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>-4.1989905263329721</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>900</v>
       </c>
-      <c r="B11">
+      <c r="C12" s="2">
         <v>2360</v>
       </c>
-      <c r="C11">
+      <c r="D12" s="2">
         <v>1400</v>
       </c>
-      <c r="D11">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>59.322033898305079</v>
       </c>
-      <c r="E11">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>-4.5356793458373721</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>1000</v>
       </c>
-      <c r="B12">
+      <c r="C13" s="2">
         <v>2320</v>
       </c>
-      <c r="C12">
+      <c r="D13" s="2">
         <v>1280</v>
       </c>
-      <c r="D12">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>55.172413793103445</v>
       </c>
-      <c r="E12">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>-5.1655603048606258</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>1500</v>
       </c>
-      <c r="B13">
+      <c r="C14" s="2">
         <v>2240</v>
       </c>
-      <c r="C13">
+      <c r="D14" s="2">
         <v>960</v>
       </c>
-      <c r="D13">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>42.857142857142854</v>
       </c>
-      <c r="E13">
+      <c r="F14" s="2">
         <f t="shared" si="1"/>
         <v>-7.3595357058918882</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>2000</v>
       </c>
-      <c r="B14">
+      <c r="C15" s="2">
         <v>2240</v>
       </c>
-      <c r="C14">
+      <c r="D15" s="2">
         <v>800</v>
       </c>
-      <c r="D14">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>35.714285714285715</v>
       </c>
-      <c r="E14">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>-8.9431606268443851</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>2500</v>
       </c>
-      <c r="B15">
+      <c r="C16" s="2">
         <v>2200</v>
       </c>
-      <c r="C15">
+      <c r="D16" s="2">
         <v>660</v>
       </c>
-      <c r="D15">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>-10.457574905606752</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>5000</v>
       </c>
-      <c r="B16">
+      <c r="C17" s="2">
         <v>2120</v>
       </c>
-      <c r="C16">
+      <c r="D17" s="2">
         <v>352</v>
       </c>
-      <c r="D16">
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>16.60377358490566</v>
       </c>
-      <c r="E16">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>-15.59586394901241</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>10000</v>
       </c>
-      <c r="B17">
+      <c r="C18" s="2">
         <v>2120</v>
       </c>
-      <c r="C17">
+      <c r="D18" s="2">
         <v>192</v>
       </c>
-      <c r="D17">
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>9.0566037735849054</v>
       </c>
-      <c r="E17">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>-20.860692644504034</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>20000</v>
       </c>
-      <c r="B18">
+      <c r="C19" s="2">
         <v>2120</v>
       </c>
-      <c r="C18">
+      <c r="D19" s="2">
         <v>104</v>
       </c>
-      <c r="D18">
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
         <v>4.9056603773584913</v>
       </c>
-      <c r="E18">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>-26.186050432599419</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>50000</v>
       </c>
-      <c r="B19">
+      <c r="C20" s="2">
         <v>2120</v>
       </c>
-      <c r="C19">
+      <c r="D20" s="2">
         <v>41.900000000000006</v>
       </c>
-      <c r="D19">
+      <c r="E20" s="2">
         <f t="shared" si="0"/>
         <v>1.976415094339623</v>
       </c>
-      <c r="E19">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>-34.08243675924912</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>100000</v>
       </c>
-      <c r="B20">
+      <c r="C21" s="2">
         <v>2120</v>
       </c>
-      <c r="C20">
+      <c r="D21" s="2">
         <v>22</v>
       </c>
-      <c r="D20">
+      <c r="E21" s="2">
         <f t="shared" si="0"/>
         <v>1.0377358490566038</v>
       </c>
-      <c r="E20">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>-39.678263602130905</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>540000</v>
       </c>
-      <c r="B21">
+      <c r="C22" s="2">
         <v>2080</v>
       </c>
-      <c r="C21">
+      <c r="D22" s="2">
         <v>60</v>
       </c>
-      <c r="D21">
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
         <v>2.8846153846153846</v>
       </c>
-      <c r="E21">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>-30.798241691582358</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
